--- a/outputs/a/quote_types/list_q_pc.xlsx
+++ b/outputs/a/quote_types/list_q_pc.xlsx
@@ -11,22 +11,24 @@
     <sheet name="A02 vie saint barbre" sheetId="2" r:id="rId2"/>
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="5" r:id="rId5"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="6" r:id="rId6"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="7" r:id="rId7"/>
-    <sheet name="A09 vie saint leu" sheetId="8" r:id="rId8"/>
-    <sheet name="A11 vie saint sebastien" sheetId="9" r:id="rId9"/>
-    <sheet name="A12 miracle saint servais" sheetId="10" r:id="rId10"/>
-    <sheet name="A13 vie seint thibault" sheetId="11" r:id="rId11"/>
-    <sheet name="A16 guillaume angleterre" sheetId="12" r:id="rId12"/>
-    <sheet name="A17 robert deable" sheetId="13" r:id="rId13"/>
-    <sheet name="A18 richart sans peour" sheetId="14" r:id="rId14"/>
-    <sheet name="A19 elegy troyes" sheetId="15" r:id="rId15"/>
-    <sheet name="A20 vieillards tués" sheetId="16" r:id="rId16"/>
-    <sheet name="A21 mauvais riche homme" sheetId="17" r:id="rId17"/>
-    <sheet name="A22 jeu des dez" sheetId="18" r:id="rId18"/>
-    <sheet name="A23 roy avoit amie" sheetId="19" r:id="rId19"/>
-    <sheet name="A25 quatre sereurs" sheetId="20" r:id="rId20"/>
+    <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
+    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
+    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
+    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -510,6 +512,76 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -544,26 +616,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>“Seneschal” dist le roy “Pour le cors saint Thibaut</t>
+          <t>“Seneschal,” dist le roy, “pour le cors saint Thibaut,</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fustes vous la pour moi” “Ouil se Diex me saut”</t>
+          <t>Fustes vous la pour moi?” “Ouïl, se Diex me saut.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>“Seneschal” dist le roy “Preuz estes et gentis</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>“Seneschal,” dist le roy, “preuz estes et gentis,</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -618,76 +690,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
@@ -863,6 +865,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>

--- a/outputs/a/quote_types/list_q_pc.xlsx
+++ b/outputs/a/quote_types/list_q_pc.xlsx
@@ -12,23 +12,24 @@
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
     <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
-    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
-    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
-    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
-    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
-    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
-    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
-    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
-    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
-    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
-    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
-    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
-    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
-    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
-    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
+    <sheet name="A06 vie saint gregoire" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 saint jean evangeliste" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie saint jean paulus" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie glorieux confesseur" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 vie saint leu" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 poines enfer" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 vie saint sebastien" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 miracle saint servais" sheetId="13" r:id="rId13"/>
+    <sheet name="A14 vie seint thibault" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 guillaume angleterre" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 robert deable" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 richart sans peour" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 elegy troyes" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 vieillards tués" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 mauvais riche homme" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 jeu des dez" sheetId="21" r:id="rId21"/>
+    <sheet name="A24 roy avoit amie" sheetId="22" r:id="rId22"/>
+    <sheet name="A26 quatre sereurs" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -582,6 +583,41 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -635,7 +671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -690,41 +726,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
@@ -935,6 +936,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
